--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Microalbuminuria (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Microalbuminuria (INC).xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44.44547359010058</v>
+        <v>44.44547359010057</v>
       </c>
       <c r="B3" t="n">
-        <v>29.55854996992884</v>
+        <v>29.55854996992882</v>
       </c>
       <c r="C3" t="n">
         <v>59.8081933673135</v>
@@ -477,7 +477,7 @@
         <v>48.7003081417358</v>
       </c>
       <c r="B4" t="n">
-        <v>33.76703579924678</v>
+        <v>33.76703579924677</v>
       </c>
       <c r="C4" t="n">
         <v>63.52366313513336</v>
@@ -488,7 +488,7 @@
         <v>46.39936744302874</v>
       </c>
       <c r="B5" t="n">
-        <v>31.6919603550392</v>
+        <v>31.69196035503918</v>
       </c>
       <c r="C5" t="n">
         <v>61.43106343630103</v>
@@ -499,7 +499,7 @@
         <v>56.07501777429304</v>
       </c>
       <c r="B6" t="n">
-        <v>41.57077525374197</v>
+        <v>41.57077525374196</v>
       </c>
       <c r="C6" t="n">
         <v>69.81109937564152</v>
@@ -521,7 +521,7 @@
         <v>79.68136724620429</v>
       </c>
       <c r="B8" t="n">
-        <v>65.72897757204652</v>
+        <v>65.72897757204653</v>
       </c>
       <c r="C8" t="n">
         <v>90.40380684818344</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80.84734847419814</v>
+        <v>80.84734847419816</v>
       </c>
       <c r="B10" t="n">
         <v>67.1908208121134</v>
@@ -554,7 +554,7 @@
         <v>69.59565863531783</v>
       </c>
       <c r="B11" t="n">
-        <v>55.77678493174261</v>
+        <v>55.77678493174262</v>
       </c>
       <c r="C11" t="n">
         <v>81.50815415592915</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>62.59880334807273</v>
+        <v>62.59880334807272</v>
       </c>
       <c r="B12" t="n">
-        <v>48.57123488068978</v>
+        <v>48.57123488068977</v>
       </c>
       <c r="C12" t="n">
         <v>75.37887482779394</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79.39733183426864</v>
+        <v>79.39733183426866</v>
       </c>
       <c r="B13" t="n">
-        <v>65.91902519545319</v>
+        <v>65.9190251954532</v>
       </c>
       <c r="C13" t="n">
         <v>89.97996434140765</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73.9135046207963</v>
+        <v>73.91350462079632</v>
       </c>
       <c r="B14" t="n">
         <v>60.11698344356446</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>48.35326129595691</v>
+        <v>48.3532612959569</v>
       </c>
       <c r="B15" t="n">
-        <v>33.82537074014956</v>
+        <v>33.82537074014954</v>
       </c>
       <c r="C15" t="n">
         <v>63.05393350528856</v>
@@ -609,7 +609,7 @@
         <v>56.20104064197956</v>
       </c>
       <c r="B16" t="n">
-        <v>41.83420061874977</v>
+        <v>41.83420061874976</v>
       </c>
       <c r="C16" t="n">
         <v>69.90287362177953</v>
@@ -620,7 +620,7 @@
         <v>62.34675761269968</v>
       </c>
       <c r="B17" t="n">
-        <v>48.04438415067418</v>
+        <v>48.04438415067417</v>
       </c>
       <c r="C17" t="n">
         <v>75.19532633551792</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>48.57428527404928</v>
+        <v>48.57428527404927</v>
       </c>
       <c r="B18" t="n">
-        <v>33.50361043423898</v>
+        <v>33.50361043423896</v>
       </c>
       <c r="C18" t="n">
         <v>63.43188888899535</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>71.48654105440272</v>
+        <v>71.48654105440274</v>
       </c>
       <c r="B19" t="n">
         <v>57.77848263434907</v>
@@ -653,7 +653,7 @@
         <v>58.02891162722121</v>
       </c>
       <c r="B20" t="n">
-        <v>43.70418563885233</v>
+        <v>43.70418563885232</v>
       </c>
       <c r="C20" t="n">
         <v>71.43396944462906</v>
@@ -664,7 +664,7 @@
         <v>52.73411871527864</v>
       </c>
       <c r="B21" t="n">
-        <v>38.29728193447531</v>
+        <v>38.29728193447529</v>
       </c>
       <c r="C21" t="n">
         <v>66.86117751924643</v>
@@ -675,7 +675,7 @@
         <v>81.88730683450549</v>
       </c>
       <c r="B22" t="n">
-        <v>68.38923868717248</v>
+        <v>68.38923868717249</v>
       </c>
       <c r="C22" t="n">
         <v>92.21022540944699</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>49.07816248704795</v>
+        <v>49.07816248704793</v>
       </c>
       <c r="B23" t="n">
-        <v>34.36522520268913</v>
+        <v>34.36522520268912</v>
       </c>
       <c r="C23" t="n">
         <v>63.68182004750631</v>
@@ -697,10 +697,10 @@
         <v>56.26405207582282</v>
       </c>
       <c r="B24" t="n">
-        <v>41.96591330125367</v>
+        <v>41.96591330125366</v>
       </c>
       <c r="C24" t="n">
-        <v>69.94876074484854</v>
+        <v>69.94876074484853</v>
       </c>
     </row>
     <row r="25">
@@ -708,7 +708,7 @@
         <v>54.18413535520814</v>
       </c>
       <c r="B25" t="n">
-        <v>39.56907755113551</v>
+        <v>39.5690775511355</v>
       </c>
       <c r="C25" t="n">
         <v>68.234116429723</v>
@@ -719,7 +719,7 @@
         <v>52.4820729799056</v>
       </c>
       <c r="B26" t="n">
-        <v>37.7704312044597</v>
+        <v>37.77043120445968</v>
       </c>
       <c r="C26" t="n">
         <v>66.67762902697041</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>81.22520281951029</v>
+        <v>81.2252028195103</v>
       </c>
       <c r="B27" t="n">
         <v>67.78901021555575</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>64.17484285568875</v>
+        <v>64.17484285568874</v>
       </c>
       <c r="B28" t="n">
         <v>50.10645586235778</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>50.05510941351203</v>
+        <v>50.05510941351201</v>
       </c>
       <c r="B29" t="n">
-        <v>35.43193039524431</v>
+        <v>35.43193039524429</v>
       </c>
       <c r="C29" t="n">
         <v>64.49325508200008</v>
@@ -763,7 +763,7 @@
         <v>61.43282212007887</v>
       </c>
       <c r="B30" t="n">
-        <v>47.1093916406229</v>
+        <v>47.10939164062289</v>
       </c>
       <c r="C30" t="n">
         <v>74.42977842409316</v>
@@ -774,7 +774,7 @@
         <v>72.74752339280245</v>
       </c>
       <c r="B31" t="n">
-        <v>58.65514020349757</v>
+        <v>58.65514020349758</v>
       </c>
       <c r="C31" t="n">
         <v>84.32041464311723</v>
@@ -785,7 +785,7 @@
         <v>76.52950248871967</v>
       </c>
       <c r="B32" t="n">
-        <v>62.85062230029155</v>
+        <v>62.85062230029156</v>
       </c>
       <c r="C32" t="n">
         <v>87.59154636099535</v>
@@ -796,7 +796,7 @@
         <v>73.97651605463957</v>
       </c>
       <c r="B33" t="n">
-        <v>60.24869612606836</v>
+        <v>60.24869612606837</v>
       </c>
       <c r="C33" t="n">
         <v>85.315398169887</v>
@@ -818,7 +818,7 @@
         <v>57.17798756844364</v>
       </c>
       <c r="B35" t="n">
-        <v>42.90090581130495</v>
+        <v>42.90090581130494</v>
       </c>
       <c r="C35" t="n">
         <v>70.71430865627329</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>63.13488449538141</v>
+        <v>63.1348844953814</v>
       </c>
       <c r="B36" t="n">
         <v>48.90803798729871</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>53.58504277405621</v>
+        <v>53.5850427740562</v>
       </c>
       <c r="B37" t="n">
-        <v>39.10056176202268</v>
+        <v>39.10056176202266</v>
       </c>
       <c r="C37" t="n">
         <v>67.58083830760218</v>
@@ -862,7 +862,7 @@
         <v>63.51273884069354</v>
       </c>
       <c r="B39" t="n">
-        <v>49.50622739074106</v>
+        <v>49.50622739074105</v>
       </c>
       <c r="C39" t="n">
         <v>76.1444227392187</v>
@@ -873,7 +873,7 @@
         <v>50.65420199466396</v>
       </c>
       <c r="B40" t="n">
-        <v>35.90044618435714</v>
+        <v>35.90044618435713</v>
       </c>
       <c r="C40" t="n">
         <v>65.14653320412089</v>
@@ -895,7 +895,7 @@
         <v>70.44658269409538</v>
       </c>
       <c r="B42" t="n">
-        <v>56.58006475928999</v>
+        <v>56.58006475929</v>
       </c>
       <c r="C42" t="n">
         <v>82.2278149442849</v>
@@ -939,7 +939,7 @@
         <v>71.77057646633837</v>
       </c>
       <c r="B46" t="n">
-        <v>57.58843501094239</v>
+        <v>57.5884350109424</v>
       </c>
       <c r="C46" t="n">
         <v>83.50897960862346</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82.67521945943979</v>
+        <v>82.6752194594398</v>
       </c>
       <c r="B47" t="n">
-        <v>69.06080583221595</v>
+        <v>69.06080583221596</v>
       </c>
       <c r="C47" t="n">
         <v>92.88399907473374</v>
@@ -972,7 +972,7 @@
         <v>49.86628936972966</v>
       </c>
       <c r="B49" t="n">
-        <v>35.22887903931367</v>
+        <v>35.22887903931365</v>
       </c>
       <c r="C49" t="n">
         <v>64.47275953883414</v>
@@ -983,7 +983,7 @@
         <v>53.71106564174272</v>
       </c>
       <c r="B50" t="n">
-        <v>39.36398712703048</v>
+        <v>39.36398712703047</v>
       </c>
       <c r="C50" t="n">
         <v>67.67261255374019</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>44.31945072241406</v>
+        <v>44.31945072241405</v>
       </c>
       <c r="B51" t="n">
-        <v>29.29512460492104</v>
+        <v>29.29512460492102</v>
       </c>
       <c r="C51" t="n">
         <v>59.71641912117549</v>
@@ -1027,7 +1027,7 @@
         <v>48.22723842827038</v>
       </c>
       <c r="B54" t="n">
-        <v>33.56194537514175</v>
+        <v>33.56194537514173</v>
       </c>
       <c r="C54" t="n">
         <v>62.96215925915055</v>
@@ -1038,7 +1038,7 @@
         <v>52.67110728143538</v>
       </c>
       <c r="B55" t="n">
-        <v>38.16556925197141</v>
+        <v>38.16556925197139</v>
       </c>
       <c r="C55" t="n">
         <v>66.81529039617742</v>
@@ -1049,7 +1049,7 @@
         <v>73.06258056201875</v>
       </c>
       <c r="B56" t="n">
-        <v>59.31370361601708</v>
+        <v>59.31370361601709</v>
       </c>
       <c r="C56" t="n">
         <v>84.54985025846224</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>76.4664910548764</v>
+        <v>76.46649105487641</v>
       </c>
       <c r="B57" t="n">
-        <v>62.71890961778765</v>
+        <v>62.71890961778766</v>
       </c>
       <c r="C57" t="n">
         <v>87.54565923792634</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>53.52203134021295</v>
+        <v>53.52203134021294</v>
       </c>
       <c r="B58" t="n">
-        <v>38.96884907951878</v>
+        <v>38.96884907951877</v>
       </c>
       <c r="C58" t="n">
         <v>67.53495118453318</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>49.26719678857772</v>
+        <v>49.26719678857771</v>
       </c>
       <c r="B60" t="n">
-        <v>34.76036325020084</v>
+        <v>34.76036325020082</v>
       </c>
       <c r="C60" t="n">
         <v>63.81948141671332</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>74.89045154726038</v>
+        <v>74.8904515472604</v>
       </c>
       <c r="B61" t="n">
-        <v>61.18368863611964</v>
+        <v>61.18368863611965</v>
       </c>
       <c r="C61" t="n">
         <v>86.08094608131177</v>
@@ -1115,7 +1115,7 @@
         <v>69.53264720147456</v>
       </c>
       <c r="B62" t="n">
-        <v>55.64507224923871</v>
+        <v>55.64507224923872</v>
       </c>
       <c r="C62" t="n">
         <v>81.46226703286014</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>76.84434540018854</v>
+        <v>76.84434540018856</v>
       </c>
       <c r="B63" t="n">
-        <v>63.31709902123</v>
+        <v>63.31709902123001</v>
       </c>
       <c r="C63" t="n">
         <v>87.7038161502993</v>
@@ -1137,7 +1137,7 @@
         <v>49.20418535473446</v>
       </c>
       <c r="B64" t="n">
-        <v>34.62865056769694</v>
+        <v>34.62865056769692</v>
       </c>
       <c r="C64" t="n">
         <v>63.77359429364432</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>75.42653269456906</v>
+        <v>75.42653269456908</v>
       </c>
       <c r="B65" t="n">
-        <v>61.52049174272857</v>
+        <v>61.52049174272858</v>
       </c>
       <c r="C65" t="n">
         <v>86.68833708036358</v>
@@ -1181,7 +1181,7 @@
         <v>51.82018322265782</v>
       </c>
       <c r="B68" t="n">
-        <v>37.36228942442403</v>
+        <v>37.36228942442401</v>
       </c>
       <c r="C68" t="n">
         <v>66.09562960782166</v>
@@ -1192,7 +1192,7 @@
         <v>82.86425376096958</v>
       </c>
       <c r="B69" t="n">
-        <v>69.45594387972766</v>
+        <v>69.45594387972767</v>
       </c>
       <c r="C69" t="n">
         <v>93.02166044394075</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>50.59119056082071</v>
+        <v>50.5911905608207</v>
       </c>
       <c r="B70" t="n">
-        <v>35.76873350185324</v>
+        <v>35.76873350185323</v>
       </c>
       <c r="C70" t="n">
         <v>65.10064608105188</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>59.66796256868049</v>
+        <v>59.66796256868048</v>
       </c>
       <c r="B72" t="n">
-        <v>45.37111930302424</v>
+        <v>45.37111930302423</v>
       </c>
       <c r="C72" t="n">
         <v>72.94456972431263</v>
